--- a/measurements/ind_feeder_m.xlsx
+++ b/measurements/ind_feeder_m.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC14BC6-1E54-4505-84AC-0DB268807C0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1F60AA-A98D-447E-A760-4631C5D47415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -454,7 +462,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="G3">
         <v>1E-3</v>

--- a/measurements/ind_feeder_m.xlsx
+++ b/measurements/ind_feeder_m.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1F60AA-A98D-447E-A760-4631C5D47415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D92B2-1F8A-4C48-8E05-982FDF259B65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>0.99977900880755599</v>
+        <v>0.99999890088075505</v>
       </c>
       <c r="G5">
         <v>4.0000000000000002E-4</v>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0.999769900723529</v>
+        <v>0.99999899007235205</v>
       </c>
       <c r="G6">
         <v>4.0000000000000002E-4</v>

--- a/measurements/ind_feeder_m.xlsx
+++ b/measurements/ind_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D92B2-1F8A-4C48-8E05-982FDF259B65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809071FF-87EA-49D6-8246-7F9FF3B59557}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>bus</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,13 +115,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -459,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>0.99999890088075505</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>4.0000000000000002E-4</v>
@@ -584,11 +601,54 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0.99999899007235205</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>4.0000000000000002E-4</v>
       </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/measurements/ind_feeder_m.xlsx
+++ b/measurements/ind_feeder_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809071FF-87EA-49D6-8246-7F9FF3B59557}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E6DDD-71A5-4433-9458-3F0BC2C6E776}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="G3">
         <v>1E-3</v>
